--- a/data/test/test_1PD062550001___test.xlsx
+++ b/data/test/test_1PD062550001___test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\API2\data\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{EA6EF936-8342-41EF-9ED3-B8CA28F9731B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5147BE4-A374-4389-86AB-FE67D85FA344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14652" windowHeight="8772" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,136 +1203,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1346,6 +1229,123 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1681,26 +1681,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
       <c r="D1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="F1" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
     </row>
     <row r="2" spans="1:13" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="161"/>
+      <c r="A2" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="181"/>
       <c r="C2" s="31" t="s">
         <v>44</v>
       </c>
@@ -1746,17 +1746,17 @@
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
-      <c r="J4" s="162" t="s">
+      <c r="J4" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="162"/>
+      <c r="K4" s="169"/>
     </row>
     <row r="5" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
       <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
@@ -1816,14 +1816,14 @@
       <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
@@ -1866,7 +1866,7 @@
       <c r="K8" s="34">
         <v>351.4</v>
       </c>
-      <c r="L8" s="172">
+      <c r="L8" s="174">
         <f>SUM(K8:K9)</f>
         <v>2459.8000000000002</v>
       </c>
@@ -1906,17 +1906,17 @@
       <c r="K9" s="34">
         <v>2108.4</v>
       </c>
-      <c r="L9" s="172"/>
+      <c r="L9" s="174"/>
     </row>
     <row r="10" spans="1:13" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
@@ -1959,7 +1959,7 @@
       <c r="K11" s="81">
         <v>546</v>
       </c>
-      <c r="L11" s="171">
+      <c r="L11" s="172">
         <f>SUM(K11:K12)</f>
         <v>2457.1999999999998</v>
       </c>
@@ -2005,39 +2005,39 @@
       <c r="D13" s="87"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
       <c r="F14" s="153" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="J15" s="162" t="s">
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="J15" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="162"/>
+      <c r="K15" s="169"/>
     </row>
     <row r="16" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="147"/>
       <c r="B16" s="147"/>
       <c r="C16" s="147"/>
       <c r="D16" s="147"/>
-      <c r="E16" s="197" t="s">
+      <c r="E16" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="187"/>
+      <c r="F16" s="176"/>
       <c r="J16" s="146"/>
       <c r="K16" s="146"/>
       <c r="M16" s="1">
@@ -2046,11 +2046,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="166" t="s">
+      <c r="A17" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
       <c r="D17" s="18"/>
       <c r="E17" s="151" t="s">
         <v>92</v>
@@ -2121,14 +2121,14 @@
       <c r="N18" s="59"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
@@ -2145,7 +2145,7 @@
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="195"/>
+      <c r="C20" s="157"/>
       <c r="D20" s="87">
         <v>44348</v>
       </c>
@@ -2183,7 +2183,7 @@
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="195"/>
+      <c r="C21" s="157"/>
       <c r="D21" s="87">
         <v>44348</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="195"/>
+      <c r="C22" s="157"/>
       <c r="D22" s="87">
         <v>44440</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="195"/>
+      <c r="C23" s="157"/>
       <c r="D23" s="87">
         <v>44440</v>
       </c>
@@ -2282,26 +2282,26 @@
       <c r="K23" s="1">
         <v>0</v>
       </c>
-      <c r="L23" s="196">
+      <c r="L23" s="158">
         <v>1990.6</v>
       </c>
-      <c r="M23" s="196">
+      <c r="M23" s="158">
         <v>2.2999999999999998</v>
       </c>
       <c r="N23" s="79"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="169" t="s">
+      <c r="A24" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
       <c r="J24" s="56"/>
-      <c r="L24" s="196"/>
-      <c r="M24" s="196"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
       <c r="N24" s="79"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -2311,7 +2311,7 @@
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="195"/>
+      <c r="C25" s="157"/>
       <c r="D25" s="87">
         <v>44440</v>
       </c>
@@ -2334,23 +2334,23 @@
       <c r="K25" s="1">
         <v>0</v>
       </c>
-      <c r="L25" s="196">
+      <c r="L25" s="158">
         <v>1990.6</v>
       </c>
-      <c r="M25" s="196">
+      <c r="M25" s="158">
         <v>1.97</v>
       </c>
       <c r="N25" s="79"/>
     </row>
     <row r="26" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="170"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
       <c r="J26" s="56"/>
       <c r="N26" s="79"/>
     </row>
@@ -2440,14 +2440,14 @@
       <c r="N28" s="168"/>
     </row>
     <row r="29" spans="1:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="170" t="s">
+      <c r="A29" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -2543,14 +2543,14 @@
       <c r="N31" s="168"/>
     </row>
     <row r="32" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="170" t="s">
+      <c r="A32" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="170"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
     </row>
     <row r="33" spans="1:14" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="80" t="s">
@@ -2638,16 +2638,16 @@
       <c r="N34" s="168"/>
     </row>
     <row r="35" spans="1:14" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="163" t="s">
+      <c r="A35" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="164"/>
-      <c r="C35" s="164"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="164"/>
+      <c r="B35" s="171"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="171"/>
       <c r="I35" s="88"/>
       <c r="J35" s="89"/>
       <c r="K35" s="42"/>
@@ -2741,173 +2741,192 @@
       <c r="N37" s="168"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D43" s="188" t="s">
+      <c r="D43" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="188" t="s">
+      <c r="E43" s="154" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="188" t="s">
+      <c r="F43" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="188" t="s">
+      <c r="G43" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="H43" s="188" t="s">
+      <c r="H43" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="I43" s="189" t="s">
+      <c r="I43" s="185" t="s">
         <v>72</v>
       </c>
-      <c r="J43" s="189"/>
-      <c r="K43" s="189"/>
+      <c r="J43" s="185"/>
+      <c r="K43" s="185"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D44" s="190" t="s">
+      <c r="D44" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="190" t="s">
+      <c r="E44" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="190" t="s">
+      <c r="F44" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="G44" s="190" t="s">
+      <c r="G44" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="H44" s="191">
-        <v>0</v>
-      </c>
-      <c r="I44" s="192"/>
-      <c r="J44" s="192"/>
-      <c r="K44" s="192"/>
+      <c r="H44" s="156">
+        <v>0</v>
+      </c>
+      <c r="I44" s="183"/>
+      <c r="J44" s="183"/>
+      <c r="K44" s="183"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D45" s="190" t="s">
+      <c r="D45" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="190" t="s">
+      <c r="E45" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="190" t="s">
+      <c r="F45" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="G45" s="190" t="s">
+      <c r="G45" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="191">
-        <v>0</v>
-      </c>
-      <c r="I45" s="192"/>
-      <c r="J45" s="192"/>
-      <c r="K45" s="192"/>
+      <c r="H45" s="156">
+        <v>0</v>
+      </c>
+      <c r="I45" s="183"/>
+      <c r="J45" s="183"/>
+      <c r="K45" s="183"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D46" s="190" t="s">
+      <c r="D46" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="190" t="s">
+      <c r="E46" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="190" t="s">
+      <c r="F46" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="G46" s="190" t="s">
+      <c r="G46" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="H46" s="191">
-        <v>0</v>
-      </c>
-      <c r="I46" s="192"/>
-      <c r="J46" s="192"/>
-      <c r="K46" s="192"/>
+      <c r="H46" s="156">
+        <v>0</v>
+      </c>
+      <c r="I46" s="183"/>
+      <c r="J46" s="183"/>
+      <c r="K46" s="183"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D47" s="190" t="s">
+      <c r="D47" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="190" t="s">
+      <c r="E47" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="190" t="s">
+      <c r="F47" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="190" t="s">
+      <c r="G47" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="H47" s="191">
+      <c r="H47" s="156">
         <v>1</v>
       </c>
-      <c r="I47" s="192" t="s">
+      <c r="I47" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="J47" s="192"/>
-      <c r="K47" s="192"/>
+      <c r="J47" s="183"/>
+      <c r="K47" s="183"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D48" s="190" t="s">
+      <c r="D48" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="190" t="s">
+      <c r="E48" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="190" t="s">
+      <c r="F48" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="190" t="s">
+      <c r="G48" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="H48" s="191">
+      <c r="H48" s="156">
         <v>2</v>
       </c>
-      <c r="I48" s="193" t="s">
+      <c r="I48" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="J48" s="193"/>
-      <c r="K48" s="193"/>
+      <c r="J48" s="182"/>
+      <c r="K48" s="182"/>
     </row>
     <row r="49" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D49" s="190" t="s">
+      <c r="D49" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="190" t="s">
+      <c r="E49" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="190" t="s">
+      <c r="F49" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="190" t="s">
+      <c r="G49" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="H49" s="191">
-        <v>0</v>
-      </c>
-      <c r="I49" s="192"/>
-      <c r="J49" s="192"/>
-      <c r="K49" s="192"/>
+      <c r="H49" s="156">
+        <v>0</v>
+      </c>
+      <c r="I49" s="183"/>
+      <c r="J49" s="183"/>
+      <c r="K49" s="183"/>
     </row>
     <row r="50" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D50" s="190"/>
-      <c r="E50" s="190" t="s">
+      <c r="D50" s="155"/>
+      <c r="E50" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="190" t="s">
+      <c r="F50" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="G50" s="190" t="s">
+      <c r="G50" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="H50" s="191">
+      <c r="H50" s="156">
         <v>2</v>
       </c>
-      <c r="I50" s="193" t="s">
+      <c r="I50" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="J50" s="194"/>
-      <c r="K50" s="194"/>
+      <c r="J50" s="184"/>
+      <c r="K50" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="N30:N31"/>
     <mergeCell ref="N33:N34"/>
@@ -2921,25 +2940,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2975,26 +2975,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
       <c r="D1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="176" t="s">
+      <c r="F1" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
     </row>
     <row r="2" spans="1:12" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="161"/>
+      <c r="A2" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="181"/>
       <c r="C2" s="31" t="s">
         <v>44</v>
       </c>
@@ -3061,17 +3061,17 @@
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
-      <c r="J5" s="162" t="s">
+      <c r="J5" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="162"/>
+      <c r="K5" s="169"/>
     </row>
     <row r="6" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
       <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="K8" s="34">
         <v>351.4</v>
       </c>
-      <c r="L8" s="172">
+      <c r="L8" s="174">
         <f>SUM(K8:K9)</f>
         <v>2459.8000000000002</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="K9" s="34">
         <v>2108.4</v>
       </c>
-      <c r="L9" s="172"/>
+      <c r="L9" s="174"/>
     </row>
     <row r="10" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
@@ -3247,14 +3247,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="163" t="s">
+      <c r="A11" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="164"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
@@ -3297,7 +3297,7 @@
       <c r="K12" s="81">
         <v>546</v>
       </c>
-      <c r="L12" s="171">
+      <c r="L12" s="172">
         <f>SUM(K12:K13)</f>
         <v>2457.1999999999998</v>
       </c>
@@ -3380,14 +3380,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="174" t="s">
+      <c r="A15" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -3470,7 +3470,7 @@
       <c r="K17" s="9">
         <v>2106.1999999999998</v>
       </c>
-      <c r="L17" s="172"/>
+      <c r="L17" s="174"/>
     </row>
     <row r="18" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
@@ -3513,16 +3513,16 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
       <c r="I19" s="9"/>
       <c r="J19" s="89"/>
       <c r="K19" s="9"/>
@@ -3563,7 +3563,7 @@
       <c r="K20" s="20">
         <v>546</v>
       </c>
-      <c r="L20" s="171">
+      <c r="L20" s="172">
         <f>SUM(K20:K21)</f>
         <v>2457.1999999999998</v>
       </c>
@@ -3784,29 +3784,29 @@
       <c r="D26" s="87"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="165" t="s">
+      <c r="A27" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="165" t="s">
+      <c r="A28" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="165"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
     </row>
     <row r="29" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="166"/>
-      <c r="C29" s="166"/>
+      <c r="B29" s="177"/>
+      <c r="C29" s="177"/>
       <c r="D29" s="18"/>
       <c r="E29" s="2" t="s">
         <v>45</v>
@@ -3909,7 +3909,7 @@
       <c r="M31" s="72">
         <v>2.44</v>
       </c>
-      <c r="N31" s="172">
+      <c r="N31" s="174">
         <f>SUM(K31:K32)</f>
         <v>2459.8000000000002</v>
       </c>
@@ -4000,14 +4000,14 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="169" t="s">
+      <c r="A34" s="165" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="170"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -4147,14 +4147,14 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="169" t="s">
+      <c r="A38" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="170"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="166"/>
     </row>
     <row r="39" spans="1:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A39" s="80" t="s">
@@ -4294,16 +4294,16 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="169" t="s">
+      <c r="A42" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="166"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
     </row>
     <row r="43" spans="1:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43" s="80" t="s">
@@ -4436,24 +4436,27 @@
     </row>
     <row r="46" spans="1:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J47" s="173" t="s">
+      <c r="J47" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="K47" s="173"/>
+      <c r="K47" s="189"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J48" s="173" t="s">
+      <c r="J48" s="189" t="s">
         <v>76</v>
       </c>
-      <c r="K48" s="173"/>
+      <c r="K48" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="N39:N40"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A42:H42"/>
     <mergeCell ref="A11:F11"/>
@@ -4466,14 +4469,11 @@
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="L23:L24"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4553,7 +4553,7 @@
       <c r="I3" s="103">
         <v>1092</v>
       </c>
-      <c r="J3" s="177">
+      <c r="J3" s="190">
         <f>SUM(I3:I4)</f>
         <v>4914</v>
       </c>
@@ -4582,7 +4582,7 @@
       <c r="I4" s="104">
         <v>3822</v>
       </c>
-      <c r="J4" s="178"/>
+      <c r="J4" s="191"/>
     </row>
     <row r="5" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
@@ -4651,26 +4651,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
       <c r="E2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="176" t="s">
+      <c r="G2" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
     </row>
     <row r="3" spans="2:13" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="161"/>
+      <c r="B3" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="181"/>
       <c r="D3" s="31" t="s">
         <v>44</v>
       </c>
@@ -4737,17 +4737,17 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
-      <c r="K6" s="162" t="s">
+      <c r="K6" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="162"/>
+      <c r="L6" s="169"/>
     </row>
     <row r="7" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
       <c r="F7" s="2" t="s">
         <v>45</v>
       </c>
@@ -4840,7 +4840,7 @@
       <c r="L9" s="34">
         <v>351.4</v>
       </c>
-      <c r="M9" s="172">
+      <c r="M9" s="174">
         <f>SUM(L9:L10)</f>
         <v>2459.8000000000002</v>
       </c>
@@ -4880,7 +4880,7 @@
       <c r="L10" s="34">
         <v>2108.4</v>
       </c>
-      <c r="M10" s="172"/>
+      <c r="M10" s="174"/>
     </row>
     <row r="11" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
@@ -4923,14 +4923,14 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
@@ -5013,7 +5013,7 @@
       <c r="L14" s="38">
         <v>2106.1999999999998</v>
       </c>
-      <c r="M14" s="172"/>
+      <c r="M14" s="174"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="68" t="s">
@@ -5185,29 +5185,29 @@
       <c r="K19" s="40"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="165" t="s">
+      <c r="B20" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="165" t="s">
+      <c r="B21" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
     </row>
     <row r="22" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="166" t="s">
+      <c r="B22" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
       <c r="E22" s="18"/>
       <c r="F22" s="2" t="s">
         <v>45</v>
@@ -5401,14 +5401,14 @@
       </c>
     </row>
     <row r="27" spans="2:15" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="174" t="s">
+      <c r="B27" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="175"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="175"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="188"/>
     </row>
     <row r="28" spans="2:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="64" t="s">
@@ -5542,11 +5542,6 @@
     <row r="31" spans="2:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="B27:G27"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="M16:M17"/>
@@ -5557,6 +5552,11 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="B27:G27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5591,19 +5591,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
     </row>
     <row r="2" spans="1:14" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="181"/>
+      <c r="B2" s="200"/>
       <c r="C2" s="121" t="s">
         <v>81</v>
       </c>
@@ -5637,26 +5637,26 @@
       <c r="D4" s="87"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
     </row>
     <row r="6" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="J6" s="162" t="s">
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="J6" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="162"/>
+      <c r="K6" s="169"/>
     </row>
     <row r="7" spans="1:14" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="126" t="s">
@@ -5701,14 +5701,14 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
@@ -5845,17 +5845,17 @@
       <c r="M12" s="46">
         <v>4.74</v>
       </c>
-      <c r="N12" s="179"/>
+      <c r="N12" s="194"/>
     </row>
     <row r="13" spans="1:14" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -5948,17 +5948,17 @@
       <c r="M15" s="46">
         <v>7.18</v>
       </c>
-      <c r="N15" s="179"/>
+      <c r="N15" s="194"/>
     </row>
     <row r="16" spans="1:14" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="170" t="s">
+      <c r="A16" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
       <c r="K16" s="118"/>
       <c r="L16" s="135"/>
       <c r="M16" s="135"/>
@@ -6046,19 +6046,19 @@
       <c r="M18" s="46">
         <v>3.52</v>
       </c>
-      <c r="N18" s="179"/>
+      <c r="N18" s="194"/>
     </row>
     <row r="19" spans="1:14" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="182" t="s">
+      <c r="A19" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="193"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
       <c r="I19" s="125"/>
       <c r="J19" s="89"/>
       <c r="K19" s="119"/>
@@ -6149,20 +6149,20 @@
       <c r="M21" s="46">
         <v>3.87</v>
       </c>
-      <c r="N21" s="179"/>
+      <c r="N21" s="194"/>
     </row>
     <row r="22" spans="1:14" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="182" t="s">
+      <c r="A27" s="192" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="183"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="193"/>
+      <c r="E27" s="193"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="193"/>
       <c r="I27" s="9"/>
       <c r="J27" s="89"/>
       <c r="K27" s="9"/>
@@ -6203,7 +6203,7 @@
       <c r="K28" s="115">
         <v>546</v>
       </c>
-      <c r="L28" s="184">
+      <c r="L28" s="201">
         <f>SUM(K28:K29)</f>
         <v>2457.1999999999998</v>
       </c>
@@ -6246,7 +6246,7 @@
       <c r="K29" s="116">
         <v>1911.2</v>
       </c>
-      <c r="L29" s="185"/>
+      <c r="L29" s="202"/>
       <c r="M29" s="139" t="s">
         <v>73</v>
       </c>
@@ -6286,7 +6286,7 @@
       <c r="K30" s="141">
         <v>351</v>
       </c>
-      <c r="L30" s="185">
+      <c r="L30" s="202">
         <f>SUM(K30:K31)</f>
         <v>2457.1999999999998</v>
       </c>
@@ -6329,7 +6329,7 @@
       <c r="K31" s="142">
         <v>2106.1999999999998</v>
       </c>
-      <c r="L31" s="186"/>
+      <c r="L31" s="203"/>
       <c r="M31" s="140" t="s">
         <v>74</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="M34" s="17">
         <v>5.96</v>
       </c>
-      <c r="N34" s="179"/>
+      <c r="N34" s="194"/>
     </row>
     <row r="35" spans="1:14" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -6431,11 +6431,11 @@
       <c r="H38" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="I38" s="157" t="s">
+      <c r="I38" s="198" t="s">
         <v>72</v>
       </c>
-      <c r="J38" s="157"/>
-      <c r="K38" s="157"/>
+      <c r="J38" s="198"/>
+      <c r="K38" s="198"/>
     </row>
     <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="D39" s="93" t="s">
@@ -6453,9 +6453,9 @@
       <c r="H39" s="95">
         <v>0</v>
       </c>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="155"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="195"/>
+      <c r="K39" s="195"/>
     </row>
     <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="D40" s="93" t="s">
@@ -6473,9 +6473,9 @@
       <c r="H40" s="95">
         <v>0</v>
       </c>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
-      <c r="K40" s="155"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="195"/>
+      <c r="K40" s="195"/>
     </row>
     <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="D41" s="93" t="s">
@@ -6493,9 +6493,9 @@
       <c r="H41" s="95">
         <v>0</v>
       </c>
-      <c r="I41" s="155"/>
-      <c r="J41" s="155"/>
-      <c r="K41" s="155"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
+      <c r="K41" s="195"/>
     </row>
     <row r="42" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="93" t="s">
@@ -6513,11 +6513,11 @@
       <c r="H42" s="96">
         <v>2</v>
       </c>
-      <c r="I42" s="154" t="s">
+      <c r="I42" s="196" t="s">
         <v>67</v>
       </c>
-      <c r="J42" s="154"/>
-      <c r="K42" s="154"/>
+      <c r="J42" s="196"/>
+      <c r="K42" s="196"/>
     </row>
     <row r="43" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D43" s="93" t="s">
@@ -6535,33 +6535,33 @@
       <c r="H43" s="95">
         <v>2</v>
       </c>
-      <c r="I43" s="154" t="s">
+      <c r="I43" s="196" t="s">
         <v>67</v>
       </c>
-      <c r="J43" s="156"/>
-      <c r="K43" s="156"/>
+      <c r="J43" s="197"/>
+      <c r="K43" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="N33:N34"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="N17:N18"/>
     <mergeCell ref="I41:K41"/>
     <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="A27:H27"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="N33:N34"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="N14:N15"/>
@@ -6577,8 +6577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDE6E44-4DA1-4795-8E88-CDA6E0FF50D0}">
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6600,26 +6600,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
       <c r="D1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="F1" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
     </row>
     <row r="2" spans="1:12" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="161"/>
+      <c r="A2" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="181"/>
       <c r="C2" s="31" t="s">
         <v>44</v>
       </c>
@@ -6665,17 +6665,17 @@
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
-      <c r="J4" s="162" t="s">
+      <c r="J4" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="162"/>
+      <c r="K4" s="169"/>
     </row>
     <row r="5" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
       <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
@@ -6735,14 +6735,14 @@
       <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
@@ -6785,7 +6785,7 @@
       <c r="K8" s="34">
         <v>351.4</v>
       </c>
-      <c r="L8" s="172">
+      <c r="L8" s="174">
         <f>SUM(K8:K9)</f>
         <v>2459.8000000000002</v>
       </c>
@@ -6825,17 +6825,17 @@
       <c r="K9" s="34">
         <v>2108.4</v>
       </c>
-      <c r="L9" s="172"/>
+      <c r="L9" s="174"/>
     </row>
     <row r="10" spans="1:12" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
@@ -6878,7 +6878,7 @@
       <c r="K11" s="81">
         <v>546</v>
       </c>
-      <c r="L11" s="171">
+      <c r="L11" s="172">
         <f>SUM(K11:K12)</f>
         <v>2457.1999999999998</v>
       </c>
@@ -6924,48 +6924,48 @@
       <c r="D13" s="87"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
       <c r="F14" s="153" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="J15" s="162" t="s">
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="J15" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="162"/>
+      <c r="K15" s="169"/>
     </row>
     <row r="16" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="147"/>
       <c r="B16" s="147"/>
       <c r="C16" s="147"/>
       <c r="D16" s="147"/>
-      <c r="E16" s="197" t="s">
+      <c r="E16" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="187"/>
+      <c r="F16" s="176"/>
       <c r="J16" s="146"/>
       <c r="K16" s="146"/>
     </row>
     <row r="17" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="166" t="s">
+      <c r="A17" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
       <c r="D17" s="18"/>
       <c r="E17" s="151" t="s">
         <v>92</v>
@@ -7030,14 +7030,14 @@
       <c r="M18" s="59"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
@@ -7053,7 +7053,7 @@
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="195"/>
+      <c r="C20" s="157"/>
       <c r="D20" s="87">
         <v>44348</v>
       </c>
@@ -7088,7 +7088,7 @@
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="195"/>
+      <c r="C21" s="157"/>
       <c r="D21" s="87">
         <v>44348</v>
       </c>
@@ -7123,7 +7123,7 @@
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="195"/>
+      <c r="C22" s="157"/>
       <c r="D22" s="87">
         <v>44440</v>
       </c>
@@ -7158,7 +7158,7 @@
       <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="195"/>
+      <c r="C23" s="157"/>
       <c r="D23" s="87">
         <v>44440</v>
       </c>
@@ -7181,7 +7181,7 @@
       <c r="K23" s="1">
         <v>0</v>
       </c>
-      <c r="L23" s="196">
+      <c r="L23" s="158">
         <v>2.2999999999999998</v>
       </c>
       <c r="M23" s="79"/>
@@ -7193,8 +7193,8 @@
       <c r="B24" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="198"/>
-      <c r="D24" s="199">
+      <c r="C24" s="159"/>
+      <c r="D24" s="160">
         <v>44440</v>
       </c>
       <c r="E24" s="118">
@@ -7212,14 +7212,14 @@
       <c r="I24" s="118">
         <v>0</v>
       </c>
-      <c r="J24" s="200"/>
+      <c r="J24" s="161"/>
       <c r="K24" s="118">
         <v>0</v>
       </c>
-      <c r="L24" s="201">
+      <c r="L24" s="162">
         <v>2</v>
       </c>
-      <c r="M24" s="202"/>
+      <c r="M24" s="163"/>
       <c r="N24" s="118" t="s">
         <v>102</v>
       </c>
@@ -7234,8 +7234,8 @@
       <c r="B25" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="198"/>
-      <c r="D25" s="199">
+      <c r="C25" s="159"/>
+      <c r="D25" s="160">
         <v>44440</v>
       </c>
       <c r="E25" s="118">
@@ -7253,14 +7253,14 @@
       <c r="I25" s="118">
         <v>0</v>
       </c>
-      <c r="J25" s="200"/>
+      <c r="J25" s="161"/>
       <c r="K25" s="118">
         <v>0</v>
       </c>
-      <c r="L25" s="201">
+      <c r="L25" s="162">
         <v>0.75</v>
       </c>
-      <c r="M25" s="202"/>
+      <c r="M25" s="163"/>
       <c r="N25" s="118" t="s">
         <v>103</v>
       </c>
@@ -7269,16 +7269,16 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="170"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
       <c r="J26" s="56"/>
-      <c r="L26" s="196"/>
+      <c r="L26" s="158"/>
       <c r="M26" s="79"/>
       <c r="N26" s="118" t="s">
         <v>104</v>
@@ -7294,7 +7294,7 @@
       <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="195"/>
+      <c r="C27" s="157"/>
       <c r="D27" s="87">
         <v>44440</v>
       </c>
@@ -7317,7 +7317,7 @@
       <c r="K27" s="1">
         <v>0</v>
       </c>
-      <c r="L27" s="196">
+      <c r="L27" s="158">
         <v>1.97</v>
       </c>
       <c r="M27" s="79"/>
@@ -7335,8 +7335,8 @@
       <c r="B28" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="198"/>
-      <c r="D28" s="199">
+      <c r="C28" s="159"/>
+      <c r="D28" s="160">
         <v>44440</v>
       </c>
       <c r="E28" s="118">
@@ -7354,24 +7354,24 @@
       <c r="I28" s="118">
         <v>1</v>
       </c>
-      <c r="J28" s="200"/>
+      <c r="J28" s="161"/>
       <c r="K28" s="118">
         <v>0</v>
       </c>
-      <c r="L28" s="201">
+      <c r="L28" s="162">
         <v>1.6</v>
       </c>
       <c r="M28" s="79"/>
     </row>
     <row r="29" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="169" t="s">
+      <c r="A29" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
       <c r="J29" s="56"/>
       <c r="M29" s="79"/>
     </row>
@@ -7461,8 +7461,8 @@
       <c r="B32" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="198"/>
-      <c r="D32" s="199">
+      <c r="C32" s="159"/>
+      <c r="D32" s="160">
         <v>44440</v>
       </c>
       <c r="E32" s="118">
@@ -7480,18 +7480,18 @@
       <c r="I32" s="118">
         <v>0</v>
       </c>
-      <c r="J32" s="203" t="str">
+      <c r="J32" s="164" t="str">
         <f>(G32+I32) &amp; "/" &amp; SUM(G$32:G$33)+SUM(I$32:I$33)</f>
         <v>4/8</v>
       </c>
       <c r="K32" s="118">
         <v>200</v>
       </c>
-      <c r="L32" s="201">
+      <c r="L32" s="162">
         <f>(E32+K32)/(F32*G32+H32*I32)</f>
         <v>2.5</v>
       </c>
-      <c r="M32" s="172">
+      <c r="M32" s="174">
         <f>SUM(K32:K33)</f>
         <v>400</v>
       </c>
@@ -7503,8 +7503,8 @@
       <c r="B33" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="198"/>
-      <c r="D33" s="199">
+      <c r="C33" s="159"/>
+      <c r="D33" s="160">
         <v>44440</v>
       </c>
       <c r="E33" s="118">
@@ -7522,28 +7522,28 @@
       <c r="I33" s="118">
         <v>0</v>
       </c>
-      <c r="J33" s="203" t="str">
+      <c r="J33" s="164" t="str">
         <f>(G33+I33) &amp; "/" &amp; SUM(G$32:G$33)+SUM(I$32:I$33)</f>
         <v>4/8</v>
       </c>
       <c r="K33" s="118">
         <v>200</v>
       </c>
-      <c r="L33" s="201">
+      <c r="L33" s="162">
         <f>(E33+K33)/(F33*G33+H33*I33)</f>
         <v>1.25</v>
       </c>
       <c r="M33" s="168"/>
     </row>
     <row r="34" spans="1:13" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="170" t="s">
+      <c r="A34" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="170"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -7638,8 +7638,8 @@
       <c r="B37" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="198"/>
-      <c r="D37" s="199">
+      <c r="C37" s="159"/>
+      <c r="D37" s="160">
         <v>44440</v>
       </c>
       <c r="E37" s="118">
@@ -7657,18 +7657,18 @@
       <c r="I37" s="118">
         <v>0</v>
       </c>
-      <c r="J37" s="203" t="str">
+      <c r="J37" s="164" t="str">
         <f>(G37+I37) &amp; "/" &amp; SUM(G$37:G$38)+SUM(I$37:I$38)</f>
         <v>4/8</v>
       </c>
       <c r="K37" s="118">
         <v>400</v>
       </c>
-      <c r="L37" s="201">
+      <c r="L37" s="162">
         <f>(E37+K37)/(F37*G37+H37*I37)</f>
         <v>3</v>
       </c>
-      <c r="M37" s="172">
+      <c r="M37" s="174">
         <f>SUM(K37:K38)</f>
         <v>800</v>
       </c>
@@ -7680,8 +7680,8 @@
       <c r="B38" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="198"/>
-      <c r="D38" s="199">
+      <c r="C38" s="159"/>
+      <c r="D38" s="160">
         <v>44440</v>
       </c>
       <c r="E38" s="118">
@@ -7699,28 +7699,28 @@
       <c r="I38" s="118">
         <v>0</v>
       </c>
-      <c r="J38" s="203" t="str">
+      <c r="J38" s="164" t="str">
         <f>(G38+I38) &amp; "/" &amp; SUM(G$37:G$38)+SUM(I$37:I$38)</f>
         <v>4/8</v>
       </c>
       <c r="K38" s="118">
         <v>400</v>
       </c>
-      <c r="L38" s="201">
+      <c r="L38" s="162">
         <f>(E38+K38)/(F38*G38+H38*I38)</f>
         <v>1.75</v>
       </c>
       <c r="M38" s="168"/>
     </row>
     <row r="39" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="170" t="s">
+      <c r="A39" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
     </row>
     <row r="40" spans="1:13" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A40" s="80" t="s">
@@ -7808,8 +7808,8 @@
       <c r="B42" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="198"/>
-      <c r="D42" s="199">
+      <c r="C42" s="159"/>
+      <c r="D42" s="160">
         <v>44440</v>
       </c>
       <c r="E42" s="118">
@@ -7827,18 +7827,18 @@
       <c r="I42" s="118">
         <v>0</v>
       </c>
-      <c r="J42" s="203" t="str">
+      <c r="J42" s="164" t="str">
         <f>(G42+I42) &amp; "/" &amp; SUM(G$42:G$43)+SUM(I$42:I$43)</f>
         <v>4/8</v>
       </c>
       <c r="K42" s="118">
         <v>100</v>
       </c>
-      <c r="L42" s="201">
+      <c r="L42" s="162">
         <f>(E42+K42)/(F42*G42+H42*I42)</f>
         <v>2.25</v>
       </c>
-      <c r="M42" s="172">
+      <c r="M42" s="174">
         <f>SUM(K42:K43)</f>
         <v>200</v>
       </c>
@@ -7850,8 +7850,8 @@
       <c r="B43" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="198"/>
-      <c r="D43" s="199">
+      <c r="C43" s="159"/>
+      <c r="D43" s="160">
         <v>44440</v>
       </c>
       <c r="E43" s="118">
@@ -7869,30 +7869,30 @@
       <c r="I43" s="118">
         <v>0</v>
       </c>
-      <c r="J43" s="203" t="str">
+      <c r="J43" s="164" t="str">
         <f>(G43+I43) &amp; "/" &amp; SUM(G$42:G$43)+SUM(I$42:I$43)</f>
         <v>4/8</v>
       </c>
       <c r="K43" s="118">
         <v>100</v>
       </c>
-      <c r="L43" s="201">
+      <c r="L43" s="162">
         <f>(E43+K43)/(F43*G43+H43*I43)</f>
         <v>1</v>
       </c>
       <c r="M43" s="168"/>
     </row>
     <row r="44" spans="1:13" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="163" t="s">
+      <c r="A44" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="164"/>
-      <c r="C44" s="164"/>
-      <c r="D44" s="164"/>
-      <c r="E44" s="164"/>
-      <c r="F44" s="164"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="164"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
+      <c r="D44" s="171"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="171"/>
       <c r="I44" s="88"/>
       <c r="J44" s="89"/>
       <c r="K44" s="42"/>
@@ -7985,8 +7985,8 @@
       <c r="B47" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="198"/>
-      <c r="D47" s="199">
+      <c r="C47" s="159"/>
+      <c r="D47" s="160">
         <v>44440</v>
       </c>
       <c r="E47" s="118">
@@ -8004,18 +8004,18 @@
       <c r="I47" s="118">
         <v>2</v>
       </c>
-      <c r="J47" s="203" t="str">
+      <c r="J47" s="164" t="str">
         <f>(G47+I47) &amp; "/" &amp; SUM(G$47:G$48)+SUM(I$47:I$48)</f>
         <v>6/10</v>
       </c>
       <c r="K47" s="118">
-        <v>200</v>
-      </c>
-      <c r="L47" s="201">
+        <v>240</v>
+      </c>
+      <c r="L47" s="162">
         <f>(E47+K47)/(F47*G47+H47*I47)</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="M47" s="172">
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="M47" s="174">
         <f>SUM(K47:K48)</f>
         <v>400</v>
       </c>
@@ -8027,8 +8027,8 @@
       <c r="B48" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="198"/>
-      <c r="D48" s="199">
+      <c r="C48" s="159"/>
+      <c r="D48" s="160">
         <v>44440</v>
       </c>
       <c r="E48" s="118">
@@ -8046,30 +8046,30 @@
       <c r="I48" s="118">
         <v>0</v>
       </c>
-      <c r="J48" s="203" t="str">
+      <c r="J48" s="164" t="str">
         <f>(G48+I48) &amp; "/" &amp; SUM(G$47:G$48)+SUM(I$47:I$48)</f>
         <v>4/10</v>
       </c>
       <c r="K48" s="118">
-        <v>200</v>
-      </c>
-      <c r="L48" s="201">
+        <v>160</v>
+      </c>
+      <c r="L48" s="162">
         <f>(E48+K48)/(F48*G48+H48*I48)</f>
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M48" s="168"/>
     </row>
     <row r="49" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="182" t="s">
+      <c r="A49" s="192" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="183"/>
-      <c r="C49" s="183"/>
-      <c r="D49" s="183"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="183"/>
-      <c r="G49" s="183"/>
-      <c r="H49" s="183"/>
+      <c r="B49" s="193"/>
+      <c r="C49" s="193"/>
+      <c r="D49" s="193"/>
+      <c r="E49" s="193"/>
+      <c r="F49" s="193"/>
+      <c r="G49" s="193"/>
+      <c r="H49" s="193"/>
     </row>
     <row r="50" spans="1:14" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A50" s="80" t="s">
@@ -8106,7 +8106,7 @@
       <c r="K50" s="118">
         <v>240</v>
       </c>
-      <c r="M50" s="184">
+      <c r="M50" s="201">
         <f>SUM(K50:K51)</f>
         <v>400</v>
       </c>
@@ -8149,7 +8149,7 @@
       <c r="K51" s="118">
         <v>160</v>
       </c>
-      <c r="M51" s="185"/>
+      <c r="M51" s="202"/>
       <c r="N51" s="139" t="s">
         <v>73</v>
       </c>
@@ -8189,7 +8189,7 @@
       <c r="K52" s="118">
         <v>200</v>
       </c>
-      <c r="M52" s="185">
+      <c r="M52" s="202">
         <f>SUM(K52:K53)</f>
         <v>400</v>
       </c>
@@ -8232,7 +8232,7 @@
       <c r="K53" s="118">
         <v>200</v>
       </c>
-      <c r="M53" s="186"/>
+      <c r="M53" s="203"/>
       <c r="N53" s="140" t="s">
         <v>74</v>
       </c>
@@ -8268,13 +8268,13 @@
       <c r="K55" s="118">
         <v>440</v>
       </c>
-      <c r="L55" s="201">
+      <c r="L55" s="162">
         <f>(E55+K55)/(F55*G55+H55*I55)</f>
         <v>2.0666666666666669</v>
       </c>
-      <c r="M55" s="167" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
+      <c r="M55" s="167">
+        <f>K55+K56</f>
+        <v>800</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8307,11 +8307,11 @@
       <c r="K56" s="144">
         <v>360</v>
       </c>
-      <c r="L56" s="201">
+      <c r="L56" s="162">
         <f>(E56+K56)/(F56*G56+H56*I56)</f>
         <v>1.65</v>
       </c>
-      <c r="M56" s="179"/>
+      <c r="M56" s="194"/>
     </row>
     <row r="57" spans="1:14" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="K57" s="143" t="s">
@@ -8372,178 +8372,196 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D62" s="188" t="s">
+      <c r="D62" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="E62" s="188" t="s">
+      <c r="E62" s="154" t="s">
         <v>60</v>
       </c>
-      <c r="F62" s="188" t="s">
+      <c r="F62" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="G62" s="188" t="s">
+      <c r="G62" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="188" t="s">
+      <c r="H62" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="I62" s="189" t="s">
+      <c r="I62" s="185" t="s">
         <v>72</v>
       </c>
-      <c r="J62" s="189"/>
-      <c r="K62" s="189"/>
+      <c r="J62" s="185"/>
+      <c r="K62" s="185"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D63" s="190" t="s">
+      <c r="D63" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E63" s="190" t="s">
+      <c r="E63" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="F63" s="190" t="s">
+      <c r="F63" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="G63" s="190" t="s">
+      <c r="G63" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="H63" s="191">
-        <v>0</v>
-      </c>
-      <c r="I63" s="192"/>
-      <c r="J63" s="192"/>
-      <c r="K63" s="192"/>
+      <c r="H63" s="156">
+        <v>0</v>
+      </c>
+      <c r="I63" s="183"/>
+      <c r="J63" s="183"/>
+      <c r="K63" s="183"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D64" s="190" t="s">
+      <c r="D64" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E64" s="190" t="s">
+      <c r="E64" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="190" t="s">
+      <c r="F64" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="G64" s="190" t="s">
+      <c r="G64" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="H64" s="191">
-        <v>0</v>
-      </c>
-      <c r="I64" s="192"/>
-      <c r="J64" s="192"/>
-      <c r="K64" s="192"/>
+      <c r="H64" s="156">
+        <v>0</v>
+      </c>
+      <c r="I64" s="183"/>
+      <c r="J64" s="183"/>
+      <c r="K64" s="183"/>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D65" s="190" t="s">
+      <c r="D65" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E65" s="190" t="s">
+      <c r="E65" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="F65" s="190" t="s">
+      <c r="F65" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="G65" s="190" t="s">
+      <c r="G65" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="H65" s="191">
-        <v>0</v>
-      </c>
-      <c r="I65" s="192"/>
-      <c r="J65" s="192"/>
-      <c r="K65" s="192"/>
+      <c r="H65" s="156">
+        <v>0</v>
+      </c>
+      <c r="I65" s="183"/>
+      <c r="J65" s="183"/>
+      <c r="K65" s="183"/>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D66" s="190" t="s">
+      <c r="D66" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="190" t="s">
+      <c r="E66" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="F66" s="190" t="s">
+      <c r="F66" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="G66" s="190" t="s">
+      <c r="G66" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="H66" s="191">
+      <c r="H66" s="156">
         <v>1</v>
       </c>
-      <c r="I66" s="192" t="s">
+      <c r="I66" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="J66" s="192"/>
-      <c r="K66" s="192"/>
+      <c r="J66" s="183"/>
+      <c r="K66" s="183"/>
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D67" s="190" t="s">
+      <c r="D67" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E67" s="190" t="s">
+      <c r="E67" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="F67" s="190" t="s">
+      <c r="F67" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="G67" s="190" t="s">
+      <c r="G67" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="H67" s="191">
+      <c r="H67" s="156">
         <v>2</v>
       </c>
-      <c r="I67" s="193" t="s">
+      <c r="I67" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="J67" s="193"/>
-      <c r="K67" s="193"/>
+      <c r="J67" s="182"/>
+      <c r="K67" s="182"/>
     </row>
     <row r="68" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D68" s="190" t="s">
+      <c r="D68" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="190" t="s">
+      <c r="E68" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="F68" s="190" t="s">
+      <c r="F68" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="G68" s="190" t="s">
+      <c r="G68" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="H68" s="191">
-        <v>0</v>
-      </c>
-      <c r="I68" s="192"/>
-      <c r="J68" s="192"/>
-      <c r="K68" s="192"/>
+      <c r="H68" s="156">
+        <v>0</v>
+      </c>
+      <c r="I68" s="183"/>
+      <c r="J68" s="183"/>
+      <c r="K68" s="183"/>
     </row>
     <row r="69" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D69" s="190"/>
-      <c r="E69" s="190" t="s">
+      <c r="D69" s="155"/>
+      <c r="E69" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="F69" s="190" t="s">
+      <c r="F69" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="G69" s="190" t="s">
+      <c r="G69" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="H69" s="191">
+      <c r="H69" s="156">
         <v>2</v>
       </c>
-      <c r="I69" s="193" t="s">
+      <c r="I69" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="J69" s="194"/>
-      <c r="K69" s="194"/>
+      <c r="J69" s="184"/>
+      <c r="K69" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="A44:H44"/>
     <mergeCell ref="M32:M33"/>
     <mergeCell ref="I68:K68"/>
     <mergeCell ref="I69:K69"/>
@@ -8555,30 +8573,12 @@
     <mergeCell ref="I65:K65"/>
     <mergeCell ref="I66:K66"/>
     <mergeCell ref="I67:K67"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="A44:H44"/>
     <mergeCell ref="M45:M46"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M37:M38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
